--- a/PointsTiming/القرية الذكية/Daily/يوم 11-6-2025.xlsx
+++ b/PointsTiming/القرية الذكية/Daily/يوم 11-6-2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7510" tabRatio="926" firstSheet="10" activeTab="18"/>
+    <workbookView windowWidth="19200" windowHeight="7510" tabRatio="926" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="18- الواحات" sheetId="4" r:id="rId1"/>
@@ -2338,7 +2338,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2488,10 +2488,6 @@
     <xf numFmtId="178" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2502,9 +2498,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2649,9 +2642,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3052,39 +3042,39 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.5" spans="1:7">
-      <c r="A1" s="127">
+      <c r="A1" s="123">
         <v>45967</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
     </row>
     <row r="2" ht="18.5" spans="1:7">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
     </row>
     <row r="3" ht="15.5" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
     </row>
     <row r="4" ht="15.5" spans="1:7">
       <c r="A4" s="3"/>
@@ -3140,7 +3130,7 @@
       <c r="G6" s="17"/>
     </row>
     <row r="7" ht="15.5" hidden="1" spans="1:7">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="89" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="17"/>
@@ -3209,10 +3199,10 @@
         <v>18</v>
       </c>
       <c r="B13" s="11"/>
-      <c r="C13" s="65"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="7"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="126">
+      <c r="F13" s="122">
         <v>0.364583333333333</v>
       </c>
       <c r="G13" s="11"/>
@@ -3233,7 +3223,7 @@
       <c r="E14" s="11">
         <v>0.399305555555556</v>
       </c>
-      <c r="F14" s="126">
+      <c r="F14" s="122">
         <v>0.40625</v>
       </c>
       <c r="G14" s="11">
@@ -3372,7 +3362,7 @@
       <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="132"/>
+      <c r="B26" s="128"/>
       <c r="C26" s="17"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11">
@@ -3402,7 +3392,7 @@
       <c r="E28" s="11">
         <v>0.819444444444444</v>
       </c>
-      <c r="G28" s="133"/>
+      <c r="G28" s="129"/>
     </row>
     <row r="29" ht="15.5" spans="1:7">
       <c r="A29" s="6" t="s">
@@ -3413,7 +3403,7 @@
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="133"/>
+      <c r="G29" s="129"/>
     </row>
     <row r="30" ht="15.5" spans="1:7">
       <c r="A30" s="6" t="s">
@@ -3449,7 +3439,7 @@
       <c r="G32" s="11"/>
     </row>
     <row r="33" ht="15.5" spans="1:7">
-      <c r="A33" s="92"/>
+      <c r="A33" s="89"/>
       <c r="B33" s="11"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -3485,7 +3475,7 @@
       <c r="G36" s="17"/>
     </row>
     <row r="37" ht="15.5" spans="1:7">
-      <c r="A37" s="92"/>
+      <c r="A37" s="89"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -4300,9 +4290,9 @@
         <v>109</v>
       </c>
       <c r="B11" s="11"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11">
         <v>0.833333333333333</v>
@@ -4313,7 +4303,7 @@
         <v>110</v>
       </c>
       <c r="B12" s="17"/>
-      <c r="C12" s="58">
+      <c r="C12" s="7">
         <v>0.319444444444444</v>
       </c>
       <c r="D12" s="11">
@@ -4336,7 +4326,7 @@
       <c r="D13" s="11">
         <v>0.364583333333333</v>
       </c>
-      <c r="E13" s="59">
+      <c r="E13" s="57">
         <v>0.368055555555556</v>
       </c>
       <c r="F13" s="25"/>
@@ -4382,7 +4372,7 @@
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
-      <c r="D16" s="60"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="7"/>
       <c r="G16" s="7"/>
     </row>
@@ -4509,7 +4499,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="11"/>
-      <c r="C27" s="61"/>
+      <c r="C27" s="59"/>
       <c r="D27" s="11"/>
       <c r="E27" s="17"/>
       <c r="F27" s="11"/>
@@ -5566,8 +5556,8 @@
   <sheetPr/>
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -5800,7 +5790,9 @@
       <c r="A20" s="28" t="s">
         <v>347</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="15">
+        <v>0.690972222222222</v>
+      </c>
       <c r="C20" s="15">
         <v>0.697916666666667</v>
       </c>
@@ -6984,7 +6976,7 @@
   <sheetPr/>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1:E29"/>
@@ -7523,7 +7515,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="116"/>
+      <c r="I6" s="112"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
@@ -7536,7 +7528,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="116"/>
+      <c r="I7" s="112"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="O7" s="1" t="s">
@@ -7556,7 +7548,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="125"/>
+      <c r="I8" s="121"/>
       <c r="J8" s="7"/>
       <c r="K8" s="8"/>
     </row>
@@ -7568,7 +7560,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="13"/>
-      <c r="I9" s="126"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="10"/>
       <c r="K9" s="11"/>
     </row>
@@ -7589,7 +7581,7 @@
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="126"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="10"/>
       <c r="K10" s="11"/>
     </row>
@@ -7609,7 +7601,7 @@
         <v>0.291666666666667</v>
       </c>
       <c r="H11" s="13"/>
-      <c r="I11" s="125"/>
+      <c r="I11" s="121"/>
       <c r="J11" s="7"/>
       <c r="K11" s="8"/>
     </row>
@@ -7623,7 +7615,7 @@
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="125"/>
+      <c r="I12" s="121"/>
       <c r="J12" s="7"/>
       <c r="K12" s="8"/>
     </row>
@@ -7648,7 +7640,7 @@
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="125"/>
+      <c r="I13" s="121"/>
       <c r="J13" s="7"/>
       <c r="K13" s="8"/>
     </row>
@@ -7664,12 +7656,12 @@
         <v>0.333333333333334</v>
       </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="125"/>
+      <c r="I14" s="121"/>
       <c r="J14" s="7"/>
       <c r="K14" s="8"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:11">
-      <c r="A15" s="123" t="s">
+      <c r="A15" s="119" t="s">
         <v>58</v>
       </c>
       <c r="B15" s="15">
@@ -7681,17 +7673,17 @@
       <c r="D15" s="15">
         <v>0.364583333333333</v>
       </c>
-      <c r="E15" s="113"/>
+      <c r="E15" s="110"/>
       <c r="F15" s="15">
         <v>0.371527777777778</v>
       </c>
       <c r="H15" s="13"/>
-      <c r="I15" s="126"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="10"/>
       <c r="K15" s="11"/>
     </row>
     <row r="16" ht="17" customHeight="1" spans="1:11">
-      <c r="A16" s="123" t="s">
+      <c r="A16" s="119" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="15"/>
@@ -7703,22 +7695,22 @@
         <v>0.375</v>
       </c>
       <c r="H16" s="15"/>
-      <c r="I16" s="126"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="10"/>
       <c r="K16" s="11"/>
     </row>
     <row r="17" ht="15.5" spans="1:11">
-      <c r="A17" s="123" t="s">
+      <c r="A17" s="119" t="s">
         <v>60</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="13"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="62"/>
+      <c r="F17" s="60"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="126"/>
+      <c r="I17" s="122"/>
       <c r="J17" s="10"/>
       <c r="K17" s="11"/>
     </row>
@@ -7726,12 +7718,12 @@
       <c r="A18" s="24"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="62"/>
+      <c r="D18" s="60"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
-      <c r="I18" s="125"/>
+      <c r="I18" s="121"/>
       <c r="J18" s="7"/>
       <c r="K18" s="8"/>
     </row>
@@ -7742,10 +7734,10 @@
       <c r="B19" s="13">
         <v>0.399305555555556</v>
       </c>
-      <c r="C19" s="62">
+      <c r="C19" s="60">
         <v>0.402777777777778</v>
       </c>
-      <c r="D19" s="62">
+      <c r="D19" s="60">
         <v>0.40625</v>
       </c>
       <c r="E19" s="13">
@@ -7756,7 +7748,7 @@
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="125"/>
+      <c r="I19" s="121"/>
       <c r="J19" s="7"/>
       <c r="K19" s="8"/>
     </row>
@@ -7765,7 +7757,7 @@
         <v>62</v>
       </c>
       <c r="B20" s="13"/>
-      <c r="C20" s="62"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
@@ -7773,7 +7765,7 @@
         <v>0.416666666666667</v>
       </c>
       <c r="H20" s="25"/>
-      <c r="I20" s="125"/>
+      <c r="I20" s="121"/>
       <c r="J20" s="7"/>
       <c r="K20" s="8"/>
       <c r="O20" t="s">
@@ -7795,7 +7787,7 @@
       <c r="H21" s="14">
         <v>0.402777777777778</v>
       </c>
-      <c r="I21" s="126"/>
+      <c r="I21" s="122"/>
       <c r="J21" s="10"/>
       <c r="K21" s="11"/>
     </row>
@@ -7808,7 +7800,7 @@
       <c r="F22" s="26"/>
       <c r="G22" s="13"/>
       <c r="H22" s="26"/>
-      <c r="I22" s="126"/>
+      <c r="I22" s="122"/>
       <c r="J22" s="10"/>
       <c r="K22" s="11"/>
     </row>
@@ -7816,13 +7808,13 @@
       <c r="A23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="62">
+      <c r="B23" s="60">
         <v>0.440972222222222</v>
       </c>
-      <c r="C23" s="62">
+      <c r="C23" s="60">
         <v>0.444444444444444</v>
       </c>
-      <c r="D23" s="62">
+      <c r="D23" s="60">
         <v>0.447916666666667</v>
       </c>
       <c r="E23" s="13">
@@ -7833,7 +7825,7 @@
       </c>
       <c r="G23" s="25"/>
       <c r="H23" s="13"/>
-      <c r="I23" s="126"/>
+      <c r="I23" s="122"/>
       <c r="J23" s="10"/>
       <c r="K23" s="11"/>
     </row>
@@ -7841,15 +7833,15 @@
       <c r="A24" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
       <c r="G24" s="15">
         <v>0.458333333333333</v>
       </c>
-      <c r="H24" s="62"/>
-      <c r="I24" s="126"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="122"/>
       <c r="J24" s="10"/>
       <c r="K24" s="11"/>
     </row>
@@ -7880,17 +7872,17 @@
         <v>68</v>
       </c>
       <c r="B27" s="15"/>
-      <c r="C27" s="62"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="14"/>
       <c r="E27" s="15">
         <v>0.486111111111111</v>
       </c>
       <c r="F27" s="14"/>
-      <c r="G27" s="62">
+      <c r="G27" s="60">
         <v>0.993055555555556</v>
       </c>
       <c r="H27" s="13"/>
-      <c r="I27" s="116"/>
+      <c r="I27" s="112"/>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
       <c r="O27" t="s">
@@ -7902,17 +7894,17 @@
         <v>70</v>
       </c>
       <c r="C28" s="26"/>
-      <c r="D28" s="62"/>
+      <c r="D28" s="60"/>
       <c r="E28" s="25"/>
       <c r="F28" s="14"/>
       <c r="G28" s="25"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="116"/>
+      <c r="I28" s="112"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
     </row>
     <row r="29" ht="15.5" spans="1:11">
-      <c r="A29" s="124" t="s">
+      <c r="A29" s="120" t="s">
         <v>71</v>
       </c>
       <c r="B29" s="15">
@@ -7927,12 +7919,12 @@
       </c>
       <c r="F29" s="15"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="126"/>
+      <c r="I29" s="122"/>
       <c r="J29" s="10"/>
       <c r="K29" s="11"/>
     </row>
     <row r="30" ht="15.5" spans="1:11">
-      <c r="A30" s="124" t="s">
+      <c r="A30" s="120" t="s">
         <v>72</v>
       </c>
       <c r="B30" s="15"/>
@@ -7943,7 +7935,7 @@
         <v>0.534722222222222</v>
       </c>
       <c r="H30" s="13"/>
-      <c r="I30" s="126"/>
+      <c r="I30" s="122"/>
       <c r="J30" s="10"/>
       <c r="K30" s="11"/>
     </row>
@@ -7962,7 +7954,7 @@
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
       <c r="H31" s="13"/>
-      <c r="I31" s="125"/>
+      <c r="I31" s="121"/>
       <c r="J31" s="7"/>
       <c r="K31" s="8"/>
     </row>
@@ -7977,7 +7969,7 @@
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="125"/>
+      <c r="I32" s="121"/>
       <c r="J32" s="7"/>
       <c r="K32" s="8"/>
     </row>
@@ -7989,14 +7981,14 @@
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
-      <c r="F33" s="117">
+      <c r="F33" s="113">
         <v>0.614583333333333</v>
       </c>
       <c r="G33" s="15">
         <v>0.618055555555556</v>
       </c>
       <c r="H33" s="13"/>
-      <c r="I33" s="126"/>
+      <c r="I33" s="122"/>
       <c r="J33" s="10"/>
       <c r="K33" s="11"/>
     </row>
@@ -8011,7 +8003,7 @@
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="126"/>
+      <c r="I34" s="122"/>
       <c r="J34" s="10"/>
       <c r="K34" s="11"/>
     </row>
@@ -8030,9 +8022,9 @@
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
-      <c r="G35" s="65"/>
+      <c r="G35" s="62"/>
       <c r="H35" s="13"/>
-      <c r="I35" s="125"/>
+      <c r="I35" s="121"/>
       <c r="J35" s="7"/>
       <c r="K35" s="8"/>
     </row>
@@ -8049,7 +8041,7 @@
         <v>0.659722222222222</v>
       </c>
       <c r="H36" s="13"/>
-      <c r="I36" s="125"/>
+      <c r="I36" s="121"/>
       <c r="J36" s="7"/>
       <c r="K36" s="8"/>
     </row>
@@ -8064,7 +8056,7 @@
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
       <c r="H37" s="13"/>
-      <c r="I37" s="125"/>
+      <c r="I37" s="121"/>
       <c r="J37" s="7"/>
       <c r="K37" s="8"/>
     </row>
@@ -8072,14 +8064,14 @@
       <c r="A38" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
       <c r="G38" s="15"/>
       <c r="H38" s="13"/>
-      <c r="I38" s="125"/>
+      <c r="I38" s="121"/>
       <c r="J38" s="7"/>
       <c r="K38" s="8"/>
     </row>
@@ -8087,24 +8079,24 @@
       <c r="A39" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="62">
+      <c r="B39" s="60">
         <v>0.677083333333333</v>
       </c>
-      <c r="C39" s="62">
+      <c r="C39" s="60">
         <v>0.680555555555556</v>
       </c>
-      <c r="D39" s="62">
+      <c r="D39" s="60">
         <v>0.684027777777778</v>
       </c>
-      <c r="E39" s="62">
+      <c r="E39" s="60">
         <v>0.6875</v>
       </c>
-      <c r="F39" s="62"/>
+      <c r="F39" s="60"/>
       <c r="G39" s="15">
         <v>0.694444444444444</v>
       </c>
       <c r="H39" s="13"/>
-      <c r="I39" s="125"/>
+      <c r="I39" s="121"/>
       <c r="J39" s="7"/>
       <c r="K39" s="8"/>
       <c r="O39" t="s">
@@ -8122,20 +8114,20 @@
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
       <c r="H40" s="13"/>
-      <c r="I40" s="126"/>
+      <c r="I40" s="122"/>
       <c r="J40" s="10"/>
       <c r="K40" s="11"/>
     </row>
     <row r="41" ht="15.5" spans="1:11">
-      <c r="A41" s="124"/>
+      <c r="A41" s="120"/>
       <c r="B41" s="15"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="15"/>
       <c r="F41" s="13"/>
-      <c r="G41" s="62"/>
+      <c r="G41" s="60"/>
       <c r="H41" s="13"/>
-      <c r="I41" s="126"/>
+      <c r="I41" s="122"/>
       <c r="J41" s="10"/>
       <c r="K41" s="11"/>
     </row>
@@ -8151,12 +8143,12 @@
       <c r="E42" s="15">
         <v>0.729166666666667</v>
       </c>
-      <c r="F42" s="62"/>
+      <c r="F42" s="60"/>
       <c r="G42" s="15">
         <v>0.736111111111111</v>
       </c>
       <c r="H42" s="13"/>
-      <c r="I42" s="125"/>
+      <c r="I42" s="121"/>
       <c r="J42" s="7"/>
       <c r="K42" s="8"/>
     </row>
@@ -8177,7 +8169,7 @@
         <v>0.777777777777778</v>
       </c>
       <c r="H43" s="13"/>
-      <c r="I43" s="126"/>
+      <c r="I43" s="122"/>
       <c r="J43" s="10"/>
       <c r="K43" s="11"/>
     </row>
@@ -8194,7 +8186,7 @@
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="13"/>
-      <c r="I44" s="125"/>
+      <c r="I44" s="121"/>
       <c r="J44" s="7"/>
       <c r="K44" s="8"/>
     </row>
@@ -8205,7 +8197,7 @@
       <c r="F45" s="26"/>
       <c r="G45" s="26"/>
       <c r="H45" s="13"/>
-      <c r="I45" s="125"/>
+      <c r="I45" s="121"/>
       <c r="J45" s="7"/>
       <c r="K45" s="8"/>
     </row>
@@ -8220,7 +8212,7 @@
       <c r="F46" s="14"/>
       <c r="G46" s="15"/>
       <c r="H46" s="13"/>
-      <c r="I46" s="126"/>
+      <c r="I46" s="122"/>
       <c r="J46" s="10"/>
       <c r="K46" s="11"/>
     </row>
@@ -8232,10 +8224,10 @@
       <c r="C47" s="26"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
       <c r="H47" s="13"/>
-      <c r="I47" s="126"/>
+      <c r="I47" s="122"/>
       <c r="J47" s="10"/>
       <c r="K47" s="11"/>
     </row>
@@ -8257,7 +8249,7 @@
         <v>0.899305555555556</v>
       </c>
       <c r="H48" s="13"/>
-      <c r="I48" s="126"/>
+      <c r="I48" s="122"/>
       <c r="J48" s="10"/>
       <c r="K48" s="11"/>
     </row>
@@ -8274,7 +8266,7 @@
         <v>0.902777777777778</v>
       </c>
       <c r="H49" s="13"/>
-      <c r="I49" s="125"/>
+      <c r="I49" s="121"/>
       <c r="J49" s="7"/>
       <c r="K49" s="8"/>
     </row>
@@ -9148,14 +9140,14 @@
       <c r="A1" s="30">
         <v>45967</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" ht="18.5" spans="1:9">
       <c r="A2" s="2" t="s">
@@ -9323,7 +9315,7 @@
         <v>109</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="113">
+      <c r="D11" s="110">
         <v>0.325</v>
       </c>
       <c r="E11" s="14">
@@ -9347,7 +9339,7 @@
       <c r="D12" s="26"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
-      <c r="H12" s="120"/>
+      <c r="H12" s="116"/>
       <c r="I12" s="15"/>
     </row>
     <row r="13" ht="15.5" spans="1:9">
@@ -9381,7 +9373,7 @@
       <c r="I14" s="25"/>
     </row>
     <row r="15" ht="16" customHeight="1" spans="1:9">
-      <c r="A15" s="121" t="s">
+      <c r="A15" s="117" t="s">
         <v>111</v>
       </c>
       <c r="B15" s="14">
@@ -9399,7 +9391,7 @@
       <c r="I15" s="15"/>
     </row>
     <row r="16" ht="15.5" spans="1:9">
-      <c r="A16" s="121" t="s">
+      <c r="A16" s="117" t="s">
         <v>112</v>
       </c>
       <c r="B16" s="13"/>
@@ -9416,7 +9408,7 @@
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:9">
-      <c r="A17" s="121" t="s">
+      <c r="A17" s="117" t="s">
         <v>65</v>
       </c>
       <c r="B17" s="14">
@@ -9434,7 +9426,7 @@
       <c r="I17" s="14"/>
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:9">
-      <c r="A18" s="121"/>
+      <c r="A18" s="117"/>
       <c r="B18" s="15"/>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
@@ -9472,7 +9464,7 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" s="119" customFormat="1" ht="16.5" customHeight="1" spans="1:9">
+    <row r="21" s="115" customFormat="1" ht="16.5" customHeight="1" spans="1:9">
       <c r="A21" s="24" t="s">
         <v>114</v>
       </c>
@@ -9551,7 +9543,7 @@
       <c r="B26" s="15">
         <v>0.65625</v>
       </c>
-      <c r="C26" s="85">
+      <c r="C26" s="82">
         <v>0.657638888888889</v>
       </c>
       <c r="D26" s="14">
@@ -9585,7 +9577,7 @@
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
-      <c r="D28" s="85"/>
+      <c r="D28" s="82"/>
       <c r="E28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="14"/>
@@ -9660,7 +9652,7 @@
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
-      <c r="H33" s="122"/>
+      <c r="H33" s="118"/>
       <c r="I33" s="15"/>
     </row>
     <row r="34" ht="15.5" spans="1:9">
@@ -9788,14 +9780,14 @@
       <c r="A1" s="30">
         <v>45967</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" ht="18.5" spans="1:9">
       <c r="A2" s="32" t="s">
@@ -10011,7 +10003,7 @@
       <c r="I14" s="13"/>
     </row>
     <row r="15" ht="15.5" spans="1:13">
-      <c r="A15" s="112" t="s">
+      <c r="A15" s="109" t="s">
         <v>147</v>
       </c>
       <c r="C15" s="15"/>
@@ -10025,7 +10017,7 @@
       <c r="G15" s="15">
         <v>0.364583333333333</v>
       </c>
-      <c r="H15" s="113">
+      <c r="H15" s="110">
         <v>0.368055555555556</v>
       </c>
       <c r="I15" s="15">
@@ -10036,7 +10028,7 @@
       </c>
     </row>
     <row r="16" ht="15.5" spans="1:13">
-      <c r="A16" s="112" t="s">
+      <c r="A16" s="109" t="s">
         <v>149</v>
       </c>
       <c r="B16" s="15"/>
@@ -10052,7 +10044,7 @@
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="1:13">
-      <c r="A17" s="112" t="s">
+      <c r="A17" s="109" t="s">
         <v>151</v>
       </c>
       <c r="C17" s="15">
@@ -10115,8 +10107,8 @@
       <c r="D20" s="15">
         <v>0.444444444444444</v>
       </c>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
       <c r="G20" s="15">
         <v>0.447916666666667</v>
       </c>
@@ -10166,8 +10158,8 @@
         <v>21</v>
       </c>
       <c r="B24" s="15"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="115"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="111"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="14">
@@ -10240,7 +10232,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="14"/>
-      <c r="C29" s="116"/>
+      <c r="C29" s="112"/>
       <c r="D29" s="14">
         <v>0.604166666666666</v>
       </c>
@@ -10288,7 +10280,7 @@
       <c r="C31" s="15"/>
       <c r="D31" s="14"/>
       <c r="F31" s="14"/>
-      <c r="G31" s="57"/>
+      <c r="G31" s="25"/>
     </row>
     <row r="32" ht="15.5" spans="1:9">
       <c r="A32" s="6"/>
@@ -10306,13 +10298,13 @@
         <v>157</v>
       </c>
       <c r="B33" s="14"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="117">
+      <c r="C33" s="113"/>
+      <c r="D33" s="113">
         <v>0.6875</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
-      <c r="G33" s="117"/>
+      <c r="G33" s="113"/>
       <c r="H33" s="14">
         <v>0.694444444444444</v>
       </c>
@@ -10455,7 +10447,7 @@
       <c r="I45" s="17"/>
     </row>
     <row r="46" ht="15.75" hidden="1" customHeight="1" spans="1:9">
-      <c r="A46" s="118" t="s">
+      <c r="A46" s="114" t="s">
         <v>126</v>
       </c>
       <c r="B46" s="17"/>
@@ -10575,71 +10567,71 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="108" t="s">
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="105" t="s">
         <v>163</v>
       </c>
-      <c r="R3" s="108" t="s">
+      <c r="R3" s="105" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:18">
       <c r="A4" s="3"/>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="90" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="91" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="94" t="s">
+      <c r="D4" s="91" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="96" t="s">
+      <c r="F4" s="93" t="s">
         <v>169</v>
       </c>
-      <c r="G4" s="96" t="s">
+      <c r="G4" s="93" t="s">
         <v>170</v>
       </c>
-      <c r="H4" s="96" t="s">
+      <c r="H4" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="I4" s="96" t="s">
+      <c r="I4" s="93" t="s">
         <v>172</v>
       </c>
-      <c r="J4" s="93" t="s">
+      <c r="J4" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="K4" s="93" t="s">
+      <c r="K4" s="90" t="s">
         <v>174</v>
       </c>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="96" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="93" t="s">
         <v>175</v>
       </c>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="108"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:18">
       <c r="A5" s="3"/>
@@ -10688,18 +10680,18 @@
       <c r="P5" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
     </row>
     <row r="6" ht="15.5" spans="1:18">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="94" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="52"/>
       <c r="C6" s="52"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="98"/>
+      <c r="F6" s="95"/>
       <c r="G6" s="52"/>
       <c r="H6" s="52"/>
       <c r="I6" s="28"/>
@@ -10711,11 +10703,11 @@
       <c r="M6" s="52"/>
       <c r="N6" s="52"/>
       <c r="O6" s="52"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="105"/>
     </row>
     <row r="7" ht="15.5" spans="1:18">
-      <c r="A7" s="97"/>
+      <c r="A7" s="94"/>
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
       <c r="D7" s="28"/>
@@ -10731,8 +10723,8 @@
       <c r="N7" s="52"/>
       <c r="O7" s="52"/>
       <c r="P7" s="28"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
+      <c r="Q7" s="105"/>
+      <c r="R7" s="105"/>
     </row>
     <row r="8" ht="15.5" spans="1:18">
       <c r="A8" s="28" t="s">
@@ -10749,8 +10741,8 @@
       <c r="N8" s="52"/>
       <c r="O8" s="52"/>
       <c r="P8" s="28"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="108"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
     </row>
     <row r="9" ht="15.5" spans="1:18">
       <c r="A9" s="28"/>
@@ -10769,8 +10761,8 @@
       <c r="N9" s="52"/>
       <c r="O9" s="28"/>
       <c r="P9" s="52"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
+      <c r="Q9" s="106"/>
+      <c r="R9" s="106"/>
     </row>
     <row r="10" ht="15.5" spans="1:18">
       <c r="A10" s="28" t="s">
@@ -10794,8 +10786,8 @@
         <v>0.288194444444444</v>
       </c>
       <c r="O10" s="52"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
+      <c r="Q10" s="106"/>
+      <c r="R10" s="106"/>
     </row>
     <row r="11" ht="15.5" spans="1:18">
       <c r="A11" s="28" t="s">
@@ -10823,46 +10815,46 @@
       <c r="P11" s="28">
         <v>0.291666666666667</v>
       </c>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
     </row>
     <row r="12" ht="15.5" spans="1:18">
       <c r="A12" s="28" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="28"/>
-      <c r="C12" s="99"/>
+      <c r="C12" s="96"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
-      <c r="H12" s="99"/>
+      <c r="H12" s="96"/>
       <c r="K12" s="52"/>
       <c r="L12" s="52"/>
       <c r="M12" s="52"/>
       <c r="N12" s="52"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
     </row>
     <row r="13" ht="15.5" spans="1:18">
       <c r="A13" s="28" t="s">
         <v>188</v>
       </c>
       <c r="B13" s="28"/>
-      <c r="C13" s="99"/>
+      <c r="C13" s="96"/>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
-      <c r="H13" s="99"/>
+      <c r="H13" s="96"/>
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
       <c r="K13" s="52"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
       <c r="N13" s="52"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
     </row>
     <row r="14" ht="16.5" customHeight="1" spans="1:18">
       <c r="A14" s="28" t="s">
@@ -10890,8 +10882,8 @@
       <c r="K14" s="28"/>
       <c r="N14" s="28"/>
       <c r="P14" s="52"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
     </row>
     <row r="15" ht="15.5" spans="1:18">
       <c r="A15" s="28" t="s">
@@ -10913,22 +10905,22 @@
       <c r="P15" s="52">
         <v>0.333333333333333</v>
       </c>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
     </row>
     <row r="16" ht="15.5" spans="1:18">
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
-      <c r="D16" s="99"/>
+      <c r="D16" s="96"/>
       <c r="E16" s="28"/>
       <c r="I16" s="28"/>
       <c r="K16" s="52"/>
       <c r="N16" s="28"/>
       <c r="O16" s="28"/>
       <c r="P16" s="52"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
     </row>
     <row r="17" ht="15.5" spans="1:18">
       <c r="A17" s="28" t="s">
@@ -10952,8 +10944,8 @@
       <c r="P17" s="28">
         <v>0.375</v>
       </c>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
     </row>
     <row r="18" ht="15.5" spans="1:18">
       <c r="A18" s="28" t="s">
@@ -10976,8 +10968,8 @@
       <c r="L18" s="52"/>
       <c r="M18" s="28"/>
       <c r="O18" s="52"/>
-      <c r="Q18" s="109"/>
-      <c r="R18" s="109"/>
+      <c r="Q18" s="106"/>
+      <c r="R18" s="106"/>
     </row>
     <row r="19" ht="15.5" spans="1:18">
       <c r="A19" s="28" t="s">
@@ -10997,8 +10989,8 @@
       <c r="M19" s="28"/>
       <c r="O19" s="52"/>
       <c r="P19" s="28"/>
-      <c r="Q19" s="109"/>
-      <c r="R19" s="109"/>
+      <c r="Q19" s="106"/>
+      <c r="R19" s="106"/>
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:18">
       <c r="A20" s="28"/>
@@ -11017,11 +11009,11 @@
       <c r="N20" s="52"/>
       <c r="O20" s="28"/>
       <c r="P20" s="28"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
     </row>
     <row r="21" ht="15.5" spans="1:18">
-      <c r="A21" s="100" t="s">
+      <c r="A21" s="97" t="s">
         <v>190</v>
       </c>
       <c r="B21" s="28"/>
@@ -11047,11 +11039,11 @@
       <c r="P21" s="28">
         <v>0.416666666666667</v>
       </c>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
     </row>
     <row r="22" ht="15.5" spans="1:18">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="97" t="s">
         <v>191</v>
       </c>
       <c r="B22" s="28"/>
@@ -11072,11 +11064,11 @@
       <c r="N22" s="28">
         <v>0.413194444444444</v>
       </c>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="65"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
     </row>
     <row r="23" ht="15.5" spans="1:18">
-      <c r="A23" s="100" t="s">
+      <c r="A23" s="97" t="s">
         <v>192</v>
       </c>
       <c r="B23" s="52"/>
@@ -11091,11 +11083,11 @@
       <c r="L23" s="52"/>
       <c r="M23" s="52"/>
       <c r="N23" s="28"/>
-      <c r="Q23" s="109"/>
-      <c r="R23" s="109"/>
+      <c r="Q23" s="106"/>
+      <c r="R23" s="106"/>
     </row>
     <row r="24" ht="15.5" spans="1:18">
-      <c r="A24" s="100"/>
+      <c r="A24" s="97"/>
       <c r="B24" s="52"/>
       <c r="C24" s="52"/>
       <c r="D24" s="52"/>
@@ -11111,11 +11103,11 @@
       <c r="N24" s="52"/>
       <c r="O24" s="52"/>
       <c r="P24" s="52"/>
-      <c r="Q24" s="109"/>
-      <c r="R24" s="109"/>
+      <c r="Q24" s="106"/>
+      <c r="R24" s="106"/>
     </row>
     <row r="25" ht="15.5" spans="1:18">
-      <c r="A25" s="97" t="s">
+      <c r="A25" s="94" t="s">
         <v>153</v>
       </c>
       <c r="D25" s="28"/>
@@ -11133,11 +11125,11 @@
       <c r="J25" s="28"/>
       <c r="K25" s="52"/>
       <c r="L25" s="52"/>
-      <c r="Q25" s="109"/>
-      <c r="R25" s="109"/>
+      <c r="Q25" s="106"/>
+      <c r="R25" s="106"/>
     </row>
     <row r="26" ht="15.5" spans="1:18">
-      <c r="A26" s="97" t="s">
+      <c r="A26" s="94" t="s">
         <v>154</v>
       </c>
       <c r="B26" s="28">
@@ -11158,8 +11150,8 @@
       <c r="M26" s="52"/>
       <c r="N26" s="52"/>
       <c r="O26" s="28"/>
-      <c r="Q26" s="109"/>
-      <c r="R26" s="109"/>
+      <c r="Q26" s="106"/>
+      <c r="R26" s="106"/>
     </row>
     <row r="27" ht="15.5" spans="1:18">
       <c r="A27" s="28" t="s">
@@ -11183,31 +11175,31 @@
       <c r="P27" s="52">
         <v>0.458333333333333</v>
       </c>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="65"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
     </row>
     <row r="28" ht="15.5" spans="1:18">
       <c r="A28" s="28" t="s">
         <v>194</v>
       </c>
       <c r="B28" s="52"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="99"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="96"/>
       <c r="E28" s="52"/>
       <c r="F28" s="52"/>
       <c r="G28" s="52"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="101"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
       <c r="J28" s="52"/>
       <c r="K28" s="52"/>
       <c r="L28" s="52"/>
       <c r="M28" s="52"/>
       <c r="N28" s="28"/>
-      <c r="Q28" s="65"/>
-      <c r="R28" s="65"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="62"/>
     </row>
     <row r="29" ht="15.5" spans="1:18">
-      <c r="A29" s="97" t="s">
+      <c r="A29" s="94" t="s">
         <v>68</v>
       </c>
       <c r="B29" s="28"/>
@@ -11231,11 +11223,11 @@
       <c r="P29" s="28">
         <v>0.5</v>
       </c>
-      <c r="Q29" s="65"/>
-      <c r="R29" s="65"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
     </row>
     <row r="30" ht="15.5" spans="1:18">
-      <c r="A30" s="97" t="s">
+      <c r="A30" s="94" t="s">
         <v>70</v>
       </c>
       <c r="B30" s="28"/>
@@ -11252,8 +11244,8 @@
       <c r="N30" s="52"/>
       <c r="O30" s="28"/>
       <c r="P30" s="28"/>
-      <c r="Q30" s="65"/>
-      <c r="R30" s="65"/>
+      <c r="Q30" s="62"/>
+      <c r="R30" s="62"/>
     </row>
     <row r="31" ht="15.5" spans="1:18">
       <c r="A31" s="28" t="s">
@@ -11283,8 +11275,8 @@
       </c>
       <c r="N31" s="28"/>
       <c r="O31" s="28"/>
-      <c r="Q31" s="109"/>
-      <c r="R31" s="109"/>
+      <c r="Q31" s="106"/>
+      <c r="R31" s="106"/>
     </row>
     <row r="32" ht="15.5" spans="1:18">
       <c r="A32" s="28" t="s">
@@ -11312,8 +11304,8 @@
       <c r="P32" s="28">
         <v>0.541666666666667</v>
       </c>
-      <c r="Q32" s="109"/>
-      <c r="R32" s="109"/>
+      <c r="Q32" s="106"/>
+      <c r="R32" s="106"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:18">
       <c r="A33" s="28" t="s">
@@ -11336,8 +11328,8 @@
         <v>0.579861111111111</v>
       </c>
       <c r="P33" s="28"/>
-      <c r="Q33" s="65"/>
-      <c r="R33" s="65"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="62"/>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:18">
       <c r="A34" s="28" t="s">
@@ -11353,8 +11345,8 @@
       <c r="K34" s="28"/>
       <c r="N34" s="28"/>
       <c r="O34" s="28"/>
-      <c r="Q34" s="65"/>
-      <c r="R34" s="65"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="62"/>
     </row>
     <row r="35" ht="15.5" spans="1:18">
       <c r="A35" s="28" t="s">
@@ -11380,8 +11372,8 @@
       <c r="P35" s="28">
         <v>0.625</v>
       </c>
-      <c r="Q35" s="109"/>
-      <c r="R35" s="109"/>
+      <c r="Q35" s="106"/>
+      <c r="R35" s="106"/>
     </row>
     <row r="36" ht="15.75" hidden="1" customHeight="1" spans="1:18">
       <c r="A36" s="28" t="s">
@@ -11404,8 +11396,8 @@
       <c r="N36" s="28"/>
       <c r="O36" s="52"/>
       <c r="P36" s="28"/>
-      <c r="Q36" s="65"/>
-      <c r="R36" s="65"/>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="62"/>
     </row>
     <row r="37" ht="16.5" customHeight="1" spans="1:18">
       <c r="A37" s="28" t="s">
@@ -11416,8 +11408,8 @@
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
-      <c r="Q37" s="65"/>
-      <c r="R37" s="65"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="62"/>
     </row>
     <row r="38" ht="15.5" spans="1:18">
       <c r="A38" s="28" t="s">
@@ -11441,9 +11433,9 @@
       <c r="N38" s="28">
         <v>0.663194444444444</v>
       </c>
-      <c r="O38" s="89"/>
-      <c r="Q38" s="65"/>
-      <c r="R38" s="65"/>
+      <c r="O38" s="86"/>
+      <c r="Q38" s="62"/>
+      <c r="R38" s="62"/>
     </row>
     <row r="39" ht="15.5" spans="1:18">
       <c r="A39" s="28" t="s">
@@ -11460,7 +11452,7 @@
       </c>
       <c r="J39" s="28"/>
       <c r="K39" s="28"/>
-      <c r="L39" s="99"/>
+      <c r="L39" s="96"/>
       <c r="N39" s="28"/>
       <c r="O39" s="28">
         <v>0.663194444444444</v>
@@ -11468,129 +11460,129 @@
       <c r="P39" s="28">
         <v>0.666666666666667</v>
       </c>
-      <c r="Q39" s="65"/>
-      <c r="R39" s="65"/>
+      <c r="Q39" s="62"/>
+      <c r="R39" s="62"/>
     </row>
     <row r="40" ht="15.5" spans="1:18">
       <c r="A40" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="B40" s="99"/>
+      <c r="B40" s="96"/>
       <c r="C40" s="52"/>
       <c r="E40" s="28"/>
-      <c r="F40" s="99"/>
+      <c r="F40" s="96"/>
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
-      <c r="Q40" s="65"/>
-      <c r="R40" s="65"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="62"/>
     </row>
     <row r="41" ht="15.5" spans="1:18">
       <c r="A41" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="C41" s="89"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="89">
+      <c r="C41" s="86"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="86">
         <v>0.684027777777778</v>
       </c>
-      <c r="G41" s="89">
+      <c r="G41" s="86">
         <v>0.690972222222222</v>
       </c>
-      <c r="H41" s="89">
+      <c r="H41" s="86">
         <v>0.694444444444445</v>
       </c>
       <c r="K41" s="28"/>
-      <c r="M41" s="102"/>
-      <c r="N41" s="89"/>
-      <c r="O41" s="89"/>
-      <c r="P41" s="89">
+      <c r="M41" s="99"/>
+      <c r="N41" s="86"/>
+      <c r="O41" s="86"/>
+      <c r="P41" s="86">
         <v>0.708333333333333</v>
       </c>
-      <c r="Q41" s="65"/>
-      <c r="R41" s="65"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="62"/>
     </row>
     <row r="42" ht="15.5" spans="1:18">
       <c r="A42" s="28" t="s">
         <v>204</v>
       </c>
       <c r="B42" s="28"/>
-      <c r="C42" s="89"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="89"/>
-      <c r="H42" s="89"/>
-      <c r="J42" s="89"/>
-      <c r="L42" s="89"/>
-      <c r="M42" s="89"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="H42" s="86"/>
+      <c r="J42" s="86"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="86"/>
       <c r="N42" s="28"/>
       <c r="O42" s="28"/>
-      <c r="Q42" s="65"/>
-      <c r="R42" s="65"/>
+      <c r="Q42" s="62"/>
+      <c r="R42" s="62"/>
     </row>
     <row r="43" ht="15.5" spans="1:18">
       <c r="A43" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="B43" s="89"/>
-      <c r="D43" s="89">
+      <c r="B43" s="86"/>
+      <c r="D43" s="86">
         <v>0.725694444444445</v>
       </c>
-      <c r="E43" s="89"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="89">
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86">
         <v>0.732638888888889</v>
       </c>
-      <c r="H43" s="89">
+      <c r="H43" s="86">
         <v>0.736111111111111</v>
       </c>
       <c r="I43" s="28"/>
-      <c r="J43" s="89"/>
-      <c r="M43" s="89"/>
+      <c r="J43" s="86"/>
+      <c r="M43" s="86"/>
       <c r="N43" s="28"/>
       <c r="O43" s="28"/>
-      <c r="P43" s="89">
+      <c r="P43" s="86">
         <v>0.75</v>
       </c>
-      <c r="Q43" s="65"/>
-      <c r="R43" s="65"/>
+      <c r="Q43" s="62"/>
+      <c r="R43" s="62"/>
     </row>
     <row r="44" ht="15.5" spans="1:18">
       <c r="A44" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="B44" s="103"/>
-      <c r="D44" s="103"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="99"/>
-      <c r="J44" s="89"/>
-      <c r="L44" s="89"/>
-      <c r="M44" s="89"/>
-      <c r="N44" s="99"/>
+      <c r="B44" s="100"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="86"/>
+      <c r="I44" s="96"/>
+      <c r="J44" s="86"/>
+      <c r="L44" s="86"/>
+      <c r="M44" s="86"/>
+      <c r="N44" s="96"/>
       <c r="O44" s="28"/>
-      <c r="P44" s="89"/>
-      <c r="Q44" s="65"/>
-      <c r="R44" s="65"/>
+      <c r="P44" s="86"/>
+      <c r="Q44" s="62"/>
+      <c r="R44" s="62"/>
     </row>
     <row r="45" ht="16.5" customHeight="1" spans="1:18">
       <c r="A45" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="E45" s="89"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="89">
+      <c r="E45" s="86"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="86"/>
+      <c r="H45" s="86">
         <v>0.777777777777778</v>
       </c>
       <c r="J45" s="28"/>
       <c r="K45" s="28"/>
-      <c r="M45" s="89"/>
+      <c r="M45" s="86"/>
       <c r="O45" s="28"/>
-      <c r="P45" s="102"/>
-      <c r="Q45" s="109"/>
-      <c r="R45" s="109"/>
+      <c r="P45" s="99"/>
+      <c r="Q45" s="106"/>
+      <c r="R45" s="106"/>
     </row>
     <row r="46" ht="15.5" spans="1:18">
       <c r="A46" s="28" t="s">
@@ -11600,7 +11592,7 @@
       <c r="C46" s="52"/>
       <c r="D46" s="28"/>
       <c r="E46" s="28"/>
-      <c r="G46" s="98"/>
+      <c r="G46" s="95"/>
       <c r="H46" s="28"/>
       <c r="I46" s="28"/>
       <c r="J46" s="28"/>
@@ -11609,29 +11601,29 @@
       <c r="M46" s="52"/>
       <c r="N46" s="52"/>
       <c r="O46" s="52"/>
-      <c r="Q46" s="65"/>
-      <c r="R46" s="65"/>
+      <c r="Q46" s="62"/>
+      <c r="R46" s="62"/>
     </row>
     <row r="47" ht="18" customHeight="1" spans="1:18">
       <c r="A47" s="28" t="s">
         <v>209</v>
       </c>
       <c r="B47" s="52"/>
-      <c r="E47" s="102"/>
-      <c r="F47" s="89">
+      <c r="E47" s="99"/>
+      <c r="F47" s="86">
         <v>0.8125</v>
       </c>
-      <c r="H47" s="89">
+      <c r="H47" s="86">
         <v>0.819444444444445</v>
       </c>
-      <c r="I47" s="102"/>
-      <c r="J47" s="102"/>
-      <c r="K47" s="102"/>
-      <c r="L47" s="102"/>
-      <c r="M47" s="102"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="99"/>
+      <c r="K47" s="99"/>
+      <c r="L47" s="99"/>
+      <c r="M47" s="99"/>
       <c r="N47" s="28"/>
       <c r="O47" s="28"/>
-      <c r="P47" s="102"/>
+      <c r="P47" s="99"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
     </row>
@@ -11651,145 +11643,145 @@
       <c r="M48" s="52"/>
       <c r="N48" s="28"/>
       <c r="O48" s="28"/>
-      <c r="P48" s="89"/>
-      <c r="Q48" s="65"/>
-      <c r="R48" s="65"/>
+      <c r="P48" s="86"/>
+      <c r="Q48" s="62"/>
+      <c r="R48" s="62"/>
     </row>
     <row r="49" ht="15.5" spans="1:18">
       <c r="A49" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="C49" s="104"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="102"/>
-      <c r="F49" s="102"/>
-      <c r="H49" s="102">
+      <c r="C49" s="101"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
+      <c r="H49" s="99">
         <v>0.861111111111111</v>
       </c>
-      <c r="J49" s="102"/>
-      <c r="K49" s="89"/>
-      <c r="L49" s="102">
+      <c r="J49" s="99"/>
+      <c r="K49" s="86"/>
+      <c r="L49" s="99">
         <v>0.871527777777778</v>
       </c>
-      <c r="M49" s="102"/>
-      <c r="N49" s="89"/>
-      <c r="O49" s="102"/>
-      <c r="P49" s="102"/>
-      <c r="Q49" s="109"/>
-      <c r="R49" s="109"/>
+      <c r="M49" s="99"/>
+      <c r="N49" s="86"/>
+      <c r="O49" s="99"/>
+      <c r="P49" s="99"/>
+      <c r="Q49" s="106"/>
+      <c r="R49" s="106"/>
     </row>
     <row r="50" ht="15.75" hidden="1" customHeight="1" spans="1:18">
-      <c r="A50" s="105" t="s">
+      <c r="A50" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="B50" s="89">
+      <c r="B50" s="86">
         <v>0.895833333333333</v>
       </c>
-      <c r="C50" s="91"/>
-      <c r="D50" s="91"/>
-      <c r="E50" s="89">
+      <c r="C50" s="88"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="86">
         <v>0.899305555555555</v>
       </c>
-      <c r="F50" s="91"/>
-      <c r="G50" s="91"/>
-      <c r="H50" s="89">
+      <c r="F50" s="88"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="86">
         <v>0.90625</v>
       </c>
-      <c r="I50" s="89">
+      <c r="I50" s="86">
         <v>0.913194444444445</v>
       </c>
-      <c r="J50" s="91"/>
-      <c r="K50" s="91"/>
-      <c r="L50" s="91"/>
-      <c r="M50" s="91"/>
-      <c r="N50" s="91"/>
-      <c r="O50" s="91"/>
-      <c r="P50" s="89">
+      <c r="J50" s="88"/>
+      <c r="K50" s="88"/>
+      <c r="L50" s="88"/>
+      <c r="M50" s="88"/>
+      <c r="N50" s="88"/>
+      <c r="O50" s="88"/>
+      <c r="P50" s="86">
         <v>0.923611111111111</v>
       </c>
-      <c r="Q50" s="65"/>
-      <c r="R50" s="65"/>
+      <c r="Q50" s="62"/>
+      <c r="R50" s="62"/>
     </row>
     <row r="51" ht="15.75" hidden="1" customHeight="1" spans="1:18">
-      <c r="A51" s="106" t="s">
+      <c r="A51" s="103" t="s">
         <v>211</v>
       </c>
-      <c r="B51" s="91"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="91"/>
-      <c r="E51" s="91"/>
-      <c r="F51" s="91"/>
-      <c r="G51" s="91"/>
-      <c r="H51" s="91"/>
-      <c r="I51" s="91"/>
-      <c r="J51" s="91"/>
-      <c r="K51" s="91"/>
-      <c r="L51" s="91"/>
-      <c r="M51" s="91"/>
-      <c r="N51" s="91"/>
-      <c r="O51" s="91"/>
-      <c r="P51" s="91"/>
-      <c r="Q51" s="109"/>
-      <c r="R51" s="109"/>
+      <c r="B51" s="88"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="88"/>
+      <c r="E51" s="88"/>
+      <c r="F51" s="88"/>
+      <c r="G51" s="88"/>
+      <c r="H51" s="88"/>
+      <c r="I51" s="88"/>
+      <c r="J51" s="88"/>
+      <c r="K51" s="88"/>
+      <c r="L51" s="88"/>
+      <c r="M51" s="88"/>
+      <c r="N51" s="88"/>
+      <c r="O51" s="88"/>
+      <c r="P51" s="88"/>
+      <c r="Q51" s="106"/>
+      <c r="R51" s="106"/>
     </row>
     <row r="52" ht="15.5" spans="1:18">
       <c r="A52" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="B52" s="102"/>
-      <c r="C52" s="102"/>
-      <c r="D52" s="102"/>
-      <c r="F52" s="102">
+      <c r="B52" s="99"/>
+      <c r="C52" s="99"/>
+      <c r="D52" s="99"/>
+      <c r="F52" s="99">
         <v>0.895833333333333</v>
       </c>
-      <c r="G52" s="102"/>
-      <c r="H52" s="102">
+      <c r="G52" s="99"/>
+      <c r="H52" s="99">
         <v>0.902777777777778</v>
       </c>
-      <c r="L52" s="102"/>
-      <c r="M52" s="107"/>
-      <c r="N52" s="89"/>
-      <c r="O52" s="102">
+      <c r="L52" s="99"/>
+      <c r="M52" s="104"/>
+      <c r="N52" s="86"/>
+      <c r="O52" s="99">
         <v>0.913194444444445</v>
       </c>
-      <c r="P52" s="102">
+      <c r="P52" s="99">
         <v>0.916666666666667</v>
       </c>
-      <c r="Q52" s="110"/>
-      <c r="R52" s="110"/>
+      <c r="Q52" s="107"/>
+      <c r="R52" s="107"/>
     </row>
     <row r="53" ht="15.5" spans="1:18">
       <c r="A53" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="B53" s="102">
+      <c r="B53" s="99">
         <v>0.895833333333333</v>
       </c>
-      <c r="C53" s="107"/>
-      <c r="D53" s="102"/>
-      <c r="E53" s="102"/>
-      <c r="F53" s="102"/>
-      <c r="I53" s="102"/>
-      <c r="J53" s="102">
+      <c r="C53" s="104"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="99"/>
+      <c r="I53" s="99"/>
+      <c r="J53" s="99">
         <v>0.909722222222222</v>
       </c>
-      <c r="L53" s="102">
+      <c r="L53" s="99">
         <v>0.913194444444445</v>
       </c>
-      <c r="Q53" s="110"/>
-      <c r="R53" s="110"/>
+      <c r="Q53" s="107"/>
+      <c r="R53" s="107"/>
     </row>
     <row r="54" ht="15.5" spans="1:15">
       <c r="A54" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="B54" s="102"/>
-      <c r="D54" s="102"/>
-      <c r="E54" s="102"/>
-      <c r="I54" s="102"/>
+      <c r="B54" s="99"/>
+      <c r="D54" s="99"/>
+      <c r="E54" s="99"/>
+      <c r="I54" s="99"/>
       <c r="L54" s="28"/>
-      <c r="N54" s="89"/>
-      <c r="O54" s="102"/>
+      <c r="N54" s="86"/>
+      <c r="O54" s="99"/>
     </row>
     <row r="57" spans="9:9">
       <c r="I57" s="1" t="s">
@@ -11899,10 +11891,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="25.4272727272727" style="74" customWidth="1"/>
-    <col min="2" max="2" width="10.5727272727273" style="75" customWidth="1"/>
-    <col min="3" max="3" width="15.5727272727273" style="75" customWidth="1"/>
-    <col min="4" max="4" width="15" style="75" customWidth="1"/>
+    <col min="1" max="1" width="25.4272727272727" style="71" customWidth="1"/>
+    <col min="2" max="2" width="10.5727272727273" style="72" customWidth="1"/>
+    <col min="3" max="3" width="15.5727272727273" style="72" customWidth="1"/>
+    <col min="4" max="4" width="15" style="72" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" spans="1:4">
@@ -11922,36 +11914,36 @@
       <c r="D2" s="53"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" spans="1:4">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="76"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="77"/>
+      <c r="B4" s="78" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="78" t="s">
         <v>220</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="78" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:11">
-      <c r="A5" s="82"/>
-      <c r="B5" s="83" t="s">
+      <c r="A5" s="79"/>
+      <c r="B5" s="80" t="s">
         <v>222</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="80" t="s">
         <v>223</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="80" t="s">
         <v>224</v>
       </c>
       <c r="K5" t="s">
@@ -11959,7 +11951,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="81" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="28"/>
@@ -11967,18 +11959,18 @@
       <c r="D6" s="28"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:4">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="85"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
     </row>
     <row r="8" ht="16.5" customHeight="1" spans="1:4">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="85">
+      <c r="B8" s="82">
         <v>0.277777777777778</v>
       </c>
       <c r="C8" s="28">
@@ -11987,7 +11979,7 @@
       <c r="D8" s="43"/>
     </row>
     <row r="9" ht="16.5" customHeight="1" spans="1:4">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="81" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="29"/>
@@ -11997,10 +11989,10 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="85">
+      <c r="B10" s="82">
         <v>0.326388888888889</v>
       </c>
       <c r="C10" s="28"/>
@@ -12009,29 +12001,29 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="85"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="28">
         <v>0.368055555555556</v>
       </c>
       <c r="D11" s="28"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="86"/>
+      <c r="A12" s="83"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="86"/>
+      <c r="A13" s="83"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
     </row>
     <row r="14" ht="16" customHeight="1" spans="1:4">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="84" t="s">
         <v>151</v>
       </c>
       <c r="B14" s="28">
@@ -12045,21 +12037,21 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="84" t="s">
         <v>62</v>
       </c>
       <c r="B15" s="28"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="88"/>
+      <c r="D15" s="85"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="87"/>
+      <c r="A16" s="84"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="6"/>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:4">
-      <c r="A17" s="87" t="s">
+      <c r="A17" s="84" t="s">
         <v>153</v>
       </c>
       <c r="B17" s="28">
@@ -12068,20 +12060,20 @@
       <c r="C17" s="28">
         <v>0.451388888888889</v>
       </c>
-      <c r="D17" s="85">
+      <c r="D17" s="82">
         <v>0.454861111111111</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="84" t="s">
         <v>154</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
-      <c r="D18" s="85"/>
+      <c r="D18" s="82"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="86" t="s">
+      <c r="A19" s="83" t="s">
         <v>226</v>
       </c>
       <c r="B19" s="28"/>
@@ -12091,7 +12083,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="83" t="s">
         <v>227</v>
       </c>
       <c r="B20" s="28">
@@ -12222,33 +12214,33 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="24"/>
-      <c r="B35" s="89"/>
-      <c r="C35" s="89"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="86"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="24"/>
-      <c r="B36" s="90"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="86"/>
-      <c r="B37" s="90"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="91"/>
+      <c r="A37" s="83"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="88"/>
     </row>
     <row r="38" ht="17.25" hidden="1" customHeight="1" spans="1:4">
-      <c r="A38" s="92" t="s">
+      <c r="A38" s="89" t="s">
         <v>161</v>
       </c>
-      <c r="B38" s="91"/>
-      <c r="C38" s="89">
+      <c r="B38" s="88"/>
+      <c r="C38" s="86">
         <v>0.909722222222222</v>
       </c>
-      <c r="D38" s="91"/>
+      <c r="D38" s="88"/>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" s="75">
+      <c r="C41" s="72">
         <v>0</v>
       </c>
     </row>
@@ -12439,21 +12431,21 @@
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:13">
-      <c r="A6" s="66"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="26"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="71"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="68"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:13">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="63" t="s">
         <v>244</v>
       </c>
       <c r="B7" s="15"/>
@@ -12461,15 +12453,15 @@
       <c r="D7" s="15"/>
       <c r="E7" s="13"/>
       <c r="F7" s="15"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="71"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="68"/>
     </row>
     <row r="8" ht="15.95" customHeight="1" spans="1:13">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="63" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="15">
@@ -12485,15 +12477,15 @@
       <c r="F8" s="14">
         <v>0.28125</v>
       </c>
-      <c r="H8" s="67"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="71"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="68"/>
     </row>
     <row r="9" ht="15.5" spans="1:6">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="63" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="15"/>
@@ -12503,7 +12495,7 @@
       <c r="F9" s="15"/>
     </row>
     <row r="10" ht="15.5" spans="1:6">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="63" t="s">
         <v>109</v>
       </c>
       <c r="B10" s="15">
@@ -12517,7 +12509,7 @@
       </c>
     </row>
     <row r="11" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="65" t="s">
         <v>147</v>
       </c>
       <c r="B11" s="15">
@@ -12533,7 +12525,7 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="65" t="s">
         <v>151</v>
       </c>
       <c r="B12" s="15">
@@ -12552,7 +12544,7 @@
       </c>
     </row>
     <row r="13" ht="16.5" customHeight="1" spans="1:12">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="65" t="s">
         <v>62</v>
       </c>
       <c r="B13" s="13"/>
@@ -12569,7 +12561,7 @@
       </c>
     </row>
     <row r="14" ht="17.25" customHeight="1" spans="1:6">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="65" t="s">
         <v>153</v>
       </c>
       <c r="B14" s="15">
@@ -12587,7 +12579,7 @@
       </c>
     </row>
     <row r="15" ht="17.25" customHeight="1" spans="1:6">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="65" t="s">
         <v>154</v>
       </c>
       <c r="B15" s="15"/>
@@ -12597,7 +12589,7 @@
       <c r="F15" s="25"/>
     </row>
     <row r="16" ht="17.25" customHeight="1" spans="1:12">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="65" t="s">
         <v>226</v>
       </c>
       <c r="B16" s="15">
@@ -12614,7 +12606,7 @@
       </c>
     </row>
     <row r="17" ht="15.95" customHeight="1" spans="1:6">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="65" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="15"/>
@@ -12626,7 +12618,7 @@
       </c>
     </row>
     <row r="18" ht="15.5" spans="1:12">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="65" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="15">
@@ -12645,7 +12637,7 @@
       </c>
     </row>
     <row r="19" ht="15.5" spans="1:6">
-      <c r="A19" s="68"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -12653,7 +12645,7 @@
       <c r="F19" s="13"/>
     </row>
     <row r="20" ht="15.95" customHeight="1" spans="1:6">
-      <c r="A20" s="66"/>
+      <c r="A20" s="63"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -12661,7 +12653,7 @@
       <c r="F20" s="15"/>
     </row>
     <row r="21" ht="15.95" customHeight="1" spans="1:6">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="65" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="15">
@@ -12675,7 +12667,7 @@
       <c r="F21" s="15"/>
     </row>
     <row r="22" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="66" t="s">
         <v>249</v>
       </c>
       <c r="B22" s="15">
@@ -12695,17 +12687,17 @@
       </c>
     </row>
     <row r="23" ht="15.5" spans="1:6">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="66" t="s">
         <v>250</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
-      <c r="F23" s="65"/>
+      <c r="F23" s="62"/>
     </row>
     <row r="24" ht="15.5" spans="1:6">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="66" t="s">
         <v>251</v>
       </c>
       <c r="B24" s="15"/>
@@ -12717,7 +12709,7 @@
       </c>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:6">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="66" t="s">
         <v>252</v>
       </c>
       <c r="B25" s="15"/>
@@ -12726,7 +12718,7 @@
       <c r="F25" s="26"/>
     </row>
     <row r="26" ht="15.5" spans="1:14">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="63" t="s">
         <v>122</v>
       </c>
       <c r="B26" s="15"/>
@@ -12746,7 +12738,7 @@
       </c>
     </row>
     <row r="27" ht="15.5" spans="1:14">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="63" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="15"/>
@@ -12771,7 +12763,7 @@
       <c r="F28" s="25"/>
     </row>
     <row r="29" ht="15.95" customHeight="1" spans="1:14">
-      <c r="A29" s="66" t="s">
+      <c r="A29" s="63" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="15"/>
@@ -12786,7 +12778,7 @@
       </c>
     </row>
     <row r="30" ht="15.5" spans="1:6">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="63" t="s">
         <v>123</v>
       </c>
       <c r="B30" s="15"/>
@@ -12798,7 +12790,7 @@
       <c r="F30" s="15"/>
     </row>
     <row r="31" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="63" t="s">
         <v>161</v>
       </c>
       <c r="B31" s="15">
@@ -12812,7 +12804,7 @@
       <c r="F31" s="15"/>
     </row>
     <row r="32" ht="15.5" hidden="1" spans="1:6">
-      <c r="A32" s="70" t="s">
+      <c r="A32" s="67" t="s">
         <v>126</v>
       </c>
       <c r="B32" s="15">
@@ -12824,7 +12816,7 @@
       <c r="F32" s="13"/>
     </row>
     <row r="33" ht="15.5" spans="1:6">
-      <c r="A33" s="66"/>
+      <c r="A33" s="63"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="15"/>
@@ -13053,7 +13045,7 @@
       <c r="B7" s="15">
         <v>0.260416666666667</v>
       </c>
-      <c r="C7" s="63">
+      <c r="C7" s="61">
         <v>0.253472222222222</v>
       </c>
       <c r="D7" s="15">
@@ -13117,7 +13109,7 @@
       <c r="B13" s="15">
         <v>0.510416666666667</v>
       </c>
-      <c r="C13" s="64">
+      <c r="C13" s="61">
         <v>0.503472222222222</v>
       </c>
       <c r="D13" s="15"/>
@@ -13157,7 +13149,7 @@
       <c r="B17" s="14">
         <v>0.635416666666667</v>
       </c>
-      <c r="C17" s="62"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="15">
         <v>0.642361111111112</v>
       </c>
@@ -13188,7 +13180,7 @@
         <v>269</v>
       </c>
       <c r="B21" s="28"/>
-      <c r="C21" s="65"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="15">
         <v>0.725694444444444</v>
       </c>
@@ -13220,7 +13212,7 @@
       <c r="B24" s="28">
         <v>0.84375</v>
       </c>
-      <c r="C24" s="65"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="15"/>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:4">
@@ -13443,7 +13435,7 @@
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="62"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="15"/>
     </row>
     <row r="12" ht="15.5" spans="1:6">
@@ -13457,7 +13449,7 @@
         <v>0.40625</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="62"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="15"/>
     </row>
     <row r="13" ht="15.5" spans="1:6">
@@ -13469,7 +13461,7 @@
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="62">
+      <c r="E13" s="60">
         <v>0.451388888888889</v>
       </c>
       <c r="F13" s="15">
@@ -13483,7 +13475,7 @@
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="62"/>
+      <c r="E14" s="60"/>
       <c r="F14" s="15"/>
     </row>
     <row r="15" ht="15.5" spans="1:6">
@@ -13497,7 +13489,7 @@
         <v>0.53125</v>
       </c>
       <c r="D15" s="13"/>
-      <c r="E15" s="62"/>
+      <c r="E15" s="60"/>
       <c r="F15" s="15">
         <v>0.538194444444444</v>
       </c>
